--- a/Data/Transitions/19401948Translation.xlsx
+++ b/Data/Transitions/19401948Translation.xlsx
@@ -175,7 +175,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 1.0, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 1.0, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -319,13 +319,13 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -445,6 +445,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -508,7 +511,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -637,9 +640,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -658,10 +658,10 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9981033392723719, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.9980654238480479, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -775,7 +775,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1660,7 +1660,7 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.4006939409510273}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.39965674862777034}</t>
   </si>
   <si>
     <t>{180.0: 1.0}</t>
@@ -1720,7 +1720,7 @@
     <t>{404.0: 0.7774172615184943, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{428.0: 1.0}</t>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3862,29 +3862,29 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>558</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>558</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3983,29 +3983,29 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>559</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4027,29 +4027,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>560</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>560</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4291,40 +4291,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>561</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4335,29 +4335,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>563</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4434,29 +4434,29 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>555</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
